--- a/CCI/PhDSupervisors/Supervisor list.xlsx
+++ b/CCI/PhDSupervisors/Supervisor list.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nickbk/GitHub/nickbknickbk.github.io/CCI/PhDSupervisors/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9607644-884E-4A40-A7BA-0F44CD0360C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78C24448-7E3E-E644-A3E5-F3F6A64FC39A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1500" yWindow="1320" windowWidth="36920" windowHeight="19520" xr2:uid="{C80D9F26-9FB1-214D-B7CE-001AD0B05B55}"/>
   </bookViews>
@@ -457,7 +457,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
@@ -484,6 +484,9 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" readingOrder="1"/>
     </xf>
   </cellXfs>
@@ -823,8 +826,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF02D014-6C8C-404A-8803-D365699AA3CE}">
   <dimension ref="A1:K22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:I22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -907,7 +910,7 @@
         <v>24</v>
       </c>
       <c r="H3" s="1" t="str">
-        <f t="shared" ref="H3:H20" si="0">CLEAN(LEFT(K3,$H$1))</f>
+        <f>CLEAN(LEFT(K3,$H$1))</f>
         <v>Dr Bea Wohl's research focuses on digital innovation, inclusion and computing education, having specifically studied the delivery of the 2014 English computing curriculum. They have worked in consultancy and communications for over a decade, particularly in the creative and cultural sectors. Their research interests are the intersection of the digital economy, media theory, digital citizenship and digital literacy. As a teaching and supervising master's student at CCI, Bea provides research support across the Creative Computing Institute, shaping funded research that examines the social impact of technology. Bea was previously the Post-Doctoral Fellow on the Transforming the Gap: Inclusive Digital Arts and Humanities Research Skills (DAReS)</v>
       </c>
       <c r="I3" s="1" t="s">
@@ -940,7 +943,7 @@
         <v>24</v>
       </c>
       <c r="H4" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f>CLEAN(LEFT(K4,$H$1))</f>
         <v>Ceren is Senior Lecturer and MA Internet Equalities Course Leader at the UAL Creative Computing Institute, with background in digital humanities, humanitarian data and communication systems. Before joining academia in 2019, Ceren pursued a career as a humanitarian professional for 15 years, primarily with the Office of the United Nations High Commissioner for Refugees (UNHCR) in multiple forced displacement settings. She spearheaded data and technology related projects and initiatives ranging from local to global scales such as the global refugee data analytics and reporting tool, community-based paralegal and legal aid mapping system to end statelessness, and the Community of Practice for Data.  Building on her former career, she now u</v>
       </c>
       <c r="I4" s="1" t="s">
@@ -973,7 +976,7 @@
         <v>24</v>
       </c>
       <c r="H5" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f>CLEAN(LEFT(K5,$H$1))</f>
         <v>I choreograph the interplay between human bodies and algorithmic systems—where performance becomes a site of resistance, imagination, and reconfiguration.  Interdisciplinary Background With a dual background in computer science and performing arts, I foster an artistic and research practice at the intersection of contemporary performance art, AI, and robotics. I currently work as an academic researcher, lecturer, and transdisciplinary artist — choreographer, performer, and artistic director. A Poetics of Hybrid BodiesIn my performance work, I create a new poetic language in which the expressive power of the body is amplified through hybridisation with the machine. At the same time, I position the performative body and its politics a</v>
       </c>
       <c r="I5" s="1" t="s">
@@ -1006,7 +1009,7 @@
         <v>24</v>
       </c>
       <c r="H6" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f>CLEAN(LEFT(K6,$H$1))</f>
         <v xml:space="preserve">Eva Verhoeven works at the intersection between design, art, research and teaching in interdisciplinary ways. She lives in London and works as a programme director for Creative Computing &amp; Robotics (UG) at the Creative Computing Institute, UAL. She is the co-founder of Supra Systems Studio and works on the critical ecologies group for Shared Campus.Eva uses critical and creative practice to investigate contemporary issues at the interface of ecological, political and technical systems. Eva integrates theory and practice and her research outputs take the form of installations, publications, performances and curatorial projects. She is engaged in challenging the research/teaching/KE nexus and works in student centred ways and with posthuman </v>
       </c>
       <c r="I6" s="1" t="s">
@@ -1039,7 +1042,7 @@
         <v>24</v>
       </c>
       <c r="H7" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f>CLEAN(LEFT(K7,$H$1))</f>
         <v>Dr Olufemi Isiaq (Femi) is the Programme Director for the Computer and Data Science Programme at UAL Creative Computing Institute. With almost two decades of combined experience in both industry and academia, Femi has a wealth of knowledge and expertise to draw upon. having worked for a number of multinational organisations including Siemens Communication and Enterprise Limited and EON UK. He collaborated on projects with prestigious organisations such as BAE Systems, Boeing, and Rolls Royce, among others.Femi's research borders on AI applications, with a particular emphasis on Data and Human Cognition, Human Data Augmentation, Well-being, and Education. His work has inspired international collaborations for various interdisciplinary proj</v>
       </c>
       <c r="I7" s="1" t="s">
@@ -1072,7 +1075,7 @@
         <v>24</v>
       </c>
       <c r="H8" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f>CLEAN(LEFT(K8,$H$1))</f>
         <v>Dr Hooman Samani is a creative roboticist specialising in creative interdisciplinary AI-Driven Social Service Robotics, based in London, United Kingdom. He is a Reader in Creative Robotics and Course Leader of Creative Robotics (BSc) at the University of the Arts London, Creative Computing Institute. He is a Fellow of the Higher Education Academy (FHEA). His work has been presented at numerous events, including ICRA, IROS, ICSR, HRI, Ro-Man, DIS, and Ars Electronica. Throughout his career, he has held various academic and industry positions, including as a Senior Lecturer and Course Leader of Creative Robotics (BSc and MSc) at the University of the Arts London, Creative Computing Institute; Senior Lecturer in Robotics and Artificial Intel</v>
       </c>
       <c r="I8" s="1" t="s">
@@ -1105,7 +1108,7 @@
         <v>24</v>
       </c>
       <c r="H9" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f>CLEAN(LEFT(K9,$H$1))</f>
         <v>Hunter joined UAL’s Creative Computing Institute (CCI) in 2020 as an Associate Lecturer on the MSc Creative Computing. Their role included adapting and redesigning key parts of the course for online learning, as well as helping to decolonise the syllabus. They also teach and supervise students across a wide range of areas, including cyborg and posthuman theory, postcolonial theory, sustainable design, design justice, the body as a site of political research, mad studies, research methods, and ethnomethodologies.Hunter’s teaching and research sit at the intersections of queer, feminist, and anti-racist thought. They focus on making digital innovation more inclusive by addressing the forms of harm and exclusion that can occur when new techno</v>
       </c>
       <c r="I9" s="1" t="s">
@@ -1138,7 +1141,7 @@
         <v>24</v>
       </c>
       <c r="H10" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f>CLEAN(LEFT(K10,$H$1))</f>
         <v>Iulia is an interdisciplinary artist and technologist with a keen interest in social phenomena that arise in the face of increased automation and algorithmic living. Her work delves into the intersection of technology and society, exploring the co-construction of meaning in human-AI interaction. In particular, she focuses on the relationship between anthropomorphic features and anthropomorphic perception in the design of AI systems.She further develops these ideas through her role as Programme Director of Creative Computing and Robotics PG courses at the University of the Arts London. Additionally, she holds Visiting Senior Lecturer positions at the Royal College of Art and Imperial College London. Iulia earned a Microsoft-sponsored PhD i</v>
       </c>
       <c r="I10" s="1" t="s">
@@ -1152,66 +1155,66 @@
       <c r="A11" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B11" s="1" t="s">
-        <v>36</v>
+      <c r="B11" s="7" t="s">
+        <v>87</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D11" s="3" t="s">
-        <v>8</v>
+      <c r="D11" s="8" t="s">
+        <v>86</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>31</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>37</v>
+        <v>88</v>
       </c>
       <c r="G11" s="1" t="s">
         <v>24</v>
       </c>
       <c r="H11" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>I am currently a Senior Lecturer and Course Leader for the MSc Applied Machine Learning for Creatives (previously MSc Data Science and AI for the Creative Industries) at the Creative Computing Institute, UAL. My research interests are in Machine Learning for Audio Generation and Social and Musical RoboticsSince starting in 20/21 academic year I have developed and delivered a novel curriculum across multiple units, maintaining high levels of student satisfaction and growing recruitment year on year (250+ applicants by 6th year). Previously at the Embodied Audio Visual Interaction Group at Goldsmiths, London, I researched feature engineering of motion sensor data for users of interactive machine learning software and built web frameworks to</v>
+        <f>CLEAN(LEFT(K11,$H$1))</f>
+        <v>Dr. Kayalvizhi Jayavel is a researcher, academic leader, and educator with over two decades of experience in data science, artificial intelligence, and the Internet of Things (IoT). Currently serving as Senior Lecturer and Course Leader for the BSc (Hons) Data Science and AI at the Creative Computing Institute, University of the Arts London, she has been instrumental in shaping a forward-looking curriculum that integrates cutting-edge research with practical learning. In this role, she leads teaching teams, mentors students, drives curriculum innovation, and connects academia with industry expertise.Her career reflects a strong balance of academic leadership, research excellence, and international collaboration. Prior to joining UAL, she s</v>
       </c>
       <c r="I11" s="1" t="s">
         <v>26</v>
       </c>
       <c r="K11" s="5" t="s">
-        <v>38</v>
+        <v>89</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B12" s="7" t="s">
-        <v>39</v>
+      <c r="B12" s="1" t="s">
+        <v>36</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>31</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G12" s="1" t="s">
         <v>24</v>
       </c>
       <c r="H12" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>Professor Mick Grierson is a Professor of Computer Science who has worked at the intersection of AI and the Creative Industries for 25 years, raising approx. £15 million from governments and foundations, including for the UK’s first Creative Deep Learning research project, MIMIC (2018), in partnership with Google Magenta. He is founder of the discipline of Creative Computing and co-founder of UAL Creative Computing Institute (CCI). His research lab produced some of the first Creative AI research, including the first commercial video artwork using Deep Learning (AutoEncoding Bladerunner, 2016), the first real-time interactive video generation system using Deep Learning (Learning to See, 2019), and the first professional quality generative au</v>
+        <f>CLEAN(LEFT(K12,$H$1))</f>
+        <v>I am currently a Senior Lecturer and Course Leader for the MSc Applied Machine Learning for Creatives (previously MSc Data Science and AI for the Creative Industries) at the Creative Computing Institute, UAL. My research interests are in Machine Learning for Audio Generation and Social and Musical RoboticsSince starting in 20/21 academic year I have developed and delivered a novel curriculum across multiple units, maintaining high levels of student satisfaction and growing recruitment year on year (250+ applicants by 6th year). Previously at the Embodied Audio Visual Interaction Group at Goldsmiths, London, I researched feature engineering of motion sensor data for users of interactive machine learning software and built web frameworks to</v>
       </c>
       <c r="I12" s="1" t="s">
         <v>26</v>
       </c>
       <c r="K12" s="5" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
@@ -1219,98 +1222,98 @@
         <v>32</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>59</v>
+        <v>39</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D13" s="4" t="s">
-        <v>3</v>
+      <c r="D13" s="10" t="s">
+        <v>9</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>31</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>58</v>
+        <v>40</v>
       </c>
       <c r="G13" s="1" t="s">
         <v>24</v>
       </c>
       <c r="H13" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>I am Professor of Creative Computing at the Creative Computing Institute, University of the Arts London. My research explores new approaches to interactive technologies for the Arts and the Creative Industries through Creative Computing. My current focus is on Human-Centred AI and eXplainable AI for the Arts. My £24m research funding portfolio has made audio engineering more accessible and inclusive, championed the design of sustainable and ethical IoT and wearables, and engaged rural and urban communities with physical computing through craft and cultural heritage. Products of my research have been exhibited internationally including Ars Electronica (Austria) the V&amp;A and the Science Museum (UK), made available online and as smartphone apps</v>
+        <f>CLEAN(LEFT(K13,$H$1))</f>
+        <v>Professor Mick Grierson is a Professor of Computer Science who has worked at the intersection of AI and the Creative Industries for 25 years, raising approx. £15 million from governments and foundations, including for the UK’s first Creative Deep Learning research project, MIMIC (2018), in partnership with Google Magenta. He is founder of the discipline of Creative Computing and co-founder of UAL Creative Computing Institute (CCI). His research lab produced some of the first Creative AI research, including the first commercial video artwork using Deep Learning (AutoEncoding Bladerunner, 2016), the first real-time interactive video generation system using Deep Learning (Learning to See, 2019), and the first professional quality generative au</v>
       </c>
       <c r="I13" s="1" t="s">
         <v>26</v>
       </c>
       <c r="K13" s="5" t="s">
-        <v>60</v>
+        <v>41</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B14" s="1" t="s">
-        <v>62</v>
+      <c r="B14" s="7" t="s">
+        <v>59</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>31</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="G14" s="1" t="s">
         <v>24</v>
       </c>
       <c r="H14" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>Dr. Phoenix Perry, Reader in Games and Creative Technologies, specializes in developing accessible machine learning tools, founds value-driven creative coding organizations, and creates games that explore our collective interconnectivity. As the founding Course Leader for the MSc in Creative Computing at the University of the Arts London, she blends embodied gaming, inclusive design, and advanced machine learning in interactive systems. She holds a PhD in Computing from Goldsmiths where she focused on Disability Led Game Design. Founder of the Code Liberation Foundation, Perry has empowered over 6000 women to explore computational creativity with games. She also creates tools and open-source resources for game designers and artists, most no</v>
+        <f>CLEAN(LEFT(K14,$H$1))</f>
+        <v>I am Professor of Creative Computing at the Creative Computing Institute, University of the Arts London. My research explores new approaches to interactive technologies for the Arts and the Creative Industries through Creative Computing. My current focus is on Human-Centred AI and eXplainable AI for the Arts. My £24m research funding portfolio has made audio engineering more accessible and inclusive, championed the design of sustainable and ethical IoT and wearables, and engaged rural and urban communities with physical computing through craft and cultural heritage. Products of my research have been exhibited internationally including Ars Electronica (Austria) the V&amp;A and the Science Museum (UK), made available online and as smartphone apps</v>
       </c>
       <c r="I14" s="1" t="s">
         <v>26</v>
       </c>
       <c r="K14" s="5" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B15" s="7" t="s">
-        <v>65</v>
+      <c r="B15" s="1" t="s">
+        <v>62</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>31</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="G15" s="1" t="s">
         <v>24</v>
       </c>
       <c r="H15" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>I am a Professor of Creative Computing at the UAL Creative Computing Institute. My students, research assistants, and I work on a variety of projects developing new technologies to enable new forms of human expression, creativity, and embodied interaction. Much of my current research combines techniques from human-computer interaction and machine learning to allow people to apply AI more effectively to new problems, such as the design of new digital musical instruments, and gestural interfaces for gaming and accessibility. I am also involved in projects developing rich interactive technologies for digital humanities scholarship, exploring ways that machine learning can be used and appropriated to reveal and challenge patterns of bias and in</v>
+        <f>CLEAN(LEFT(K15,$H$1))</f>
+        <v>Dr. Phoenix Perry, Reader in Games and Creative Technologies, specializes in developing accessible machine learning tools, founds value-driven creative coding organizations, and creates games that explore our collective interconnectivity. As the founding Course Leader for the MSc in Creative Computing at the University of the Arts London, she blends embodied gaming, inclusive design, and advanced machine learning in interactive systems. She holds a PhD in Computing from Goldsmiths where she focused on Disability Led Game Design. Founder of the Code Liberation Foundation, Perry has empowered over 6000 women to explore computational creativity with games. She also creates tools and open-source resources for game designers and artists, most no</v>
       </c>
       <c r="I15" s="1" t="s">
         <v>26</v>
       </c>
       <c r="K15" s="5" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.2">
@@ -1318,32 +1321,32 @@
         <v>32</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D16" s="1" t="s">
-        <v>5</v>
+      <c r="D16" s="4" t="s">
+        <v>11</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>31</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="G16" s="1" t="s">
         <v>24</v>
       </c>
       <c r="H16" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>Saina is a Senior Lecturer and Course Leader for the MSc in Creative Robotics at the Creative Computing Institute, UAL. She received her PhD in Robotics from Imperial College London in 2019. Prior to her current academic role, Saina worked as a Design Systems Analyst at Foster + Partners, where she led the development of innovative AI and robotic technologies for architectural applications. She also worked as a Postdoctoral Research Associate in Surgery and Cancer at the Hamlyn Centre, Imperial College London, focused on soft sensing and actuation. Saina's research focuses on the integration of robotics and AI in real-world applications, emphasising human-in-the-loop design, digital twin technologies, and the co-design and co-evolution of</v>
+        <f>CLEAN(LEFT(K16,$H$1))</f>
+        <v>I am a Professor of Creative Computing at the UAL Creative Computing Institute. My students, research assistants, and I work on a variety of projects developing new technologies to enable new forms of human expression, creativity, and embodied interaction. Much of my current research combines techniques from human-computer interaction and machine learning to allow people to apply AI more effectively to new problems, such as the design of new digital musical instruments, and gestural interfaces for gaming and accessibility. I am also involved in projects developing rich interactive technologies for digital humanities scholarship, exploring ways that machine learning can be used and appropriated to reveal and challenge patterns of bias and in</v>
       </c>
       <c r="I16" s="1" t="s">
         <v>26</v>
       </c>
       <c r="K16" s="5" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.2">
@@ -1351,32 +1354,32 @@
         <v>32</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D17" s="4" t="s">
-        <v>13</v>
+      <c r="D17" s="1" t="s">
+        <v>5</v>
       </c>
       <c r="E17" s="1" t="s">
         <v>31</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G17" s="1" t="s">
         <v>24</v>
       </c>
       <c r="H17" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">I am a Reader at the Creative Computing Institute at the University of the Arts London in Interaction Design, Human-Computer Interaction, and Dance and Technologies. I am a choreographer, a dancer, and a Laban Movement Analyst. I practice artistic research and practice-based research, intersecting the design of interactive systems and dance-making and choreography.  Before my current position, I was an assistant and then associate professor at LISN-Université Paris Saclay and Ex-Situ INRIA research team. Before that, I was a researcher at the School of Interactive Arts+Technology at Simon Fraser University in Vancouver, within the MovingStories project. I hold a PhD in Art and Science from the University Paris-Sud 11 and the IRCAM-Centre </v>
+        <f>CLEAN(LEFT(K17,$H$1))</f>
+        <v>Saina is a Senior Lecturer and Course Leader for the MSc in Creative Robotics at the Creative Computing Institute, UAL. She received her PhD in Robotics from Imperial College London in 2019. Prior to her current academic role, Saina worked as a Design Systems Analyst at Foster + Partners, where she led the development of innovative AI and robotic technologies for architectural applications. She also worked as a Postdoctoral Research Associate in Surgery and Cancer at the Hamlyn Centre, Imperial College London, focused on soft sensing and actuation. Saina's research focuses on the integration of robotics and AI in real-world applications, emphasising human-in-the-loop design, digital twin technologies, and the co-design and co-evolution of</v>
       </c>
       <c r="I17" s="1" t="s">
         <v>26</v>
       </c>
       <c r="K17" s="5" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.2">
@@ -1384,32 +1387,32 @@
         <v>32</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E18" s="1" t="s">
         <v>31</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="G18" s="1" t="s">
         <v>24</v>
       </c>
       <c r="H18" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>Stella is a Senior Lecturer and Course Leader for the BSc Creative Computing programme at the Creative Computing Institute. In her role, she leads the course, focusing on building an interdisciplinary community of practitioners by incorporating innovative activities such as hackathons, design sprints, societies, and a buddy scheme.  With a background in engineering and a longstanding interest in digital media and computer science, Stella has spent over a decade exploring the convergence of technology and creativity. Her work centers on the intersection of community, game design, and XR, developing immersive experiences through collaborative co-design. Before joining the Creative Computing Institute, Stella was a Lecturer in the Games De</v>
+        <f>CLEAN(LEFT(K18,$H$1))</f>
+        <v xml:space="preserve">I am a Reader at the Creative Computing Institute at the University of the Arts London in Interaction Design, Human-Computer Interaction, and Dance and Technologies. I am a choreographer, a dancer, and a Laban Movement Analyst. I practice artistic research and practice-based research, intersecting the design of interactive systems and dance-making and choreography.  Before my current position, I was an assistant and then associate professor at LISN-Université Paris Saclay and Ex-Situ INRIA research team. Before that, I was a researcher at the School of Interactive Arts+Technology at Simon Fraser University in Vancouver, within the MovingStories project. I hold a PhD in Art and Science from the University Paris-Sud 11 and the IRCAM-Centre </v>
       </c>
       <c r="I18" s="1" t="s">
         <v>26</v>
       </c>
       <c r="K18" s="5" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.2">
@@ -1417,32 +1420,32 @@
         <v>32</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D19" s="1" t="s">
-        <v>76</v>
+      <c r="D19" s="4" t="s">
+        <v>12</v>
       </c>
       <c r="E19" s="1" t="s">
         <v>31</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="G19" s="1" t="s">
         <v>24</v>
       </c>
       <c r="H19" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">Audiovisual media and digital technologies are pervasive in modern human life. Our brains and behaviours develop from birth to adulthood shaped by the media around us whilst rapid technological evolution enables new media experiences that are increasingly symbiotic with human cognition. In my Cognition in Naturalistic Environments (CINE) Lab (www.cinelabresearch.com) we study the relationship between media and minds across the lifespan. Utilising advanced experimental and computational techniques (including eye tracking, EEG, fNIRS, computational modelling and AI) we endeavour to study this relationship from the frame-by-frame effect of directorial decisions on viewer attention and comprehension to the long-lasting impact of everyday media </v>
+        <f>CLEAN(LEFT(K19,$H$1))</f>
+        <v>Stella is a Senior Lecturer and Course Leader for the BSc Creative Computing programme at the Creative Computing Institute. In her role, she leads the course, focusing on building an interdisciplinary community of practitioners by incorporating innovative activities such as hackathons, design sprints, societies, and a buddy scheme.  With a background in engineering and a longstanding interest in digital media and computer science, Stella has spent over a decade exploring the convergence of technology and creativity. Her work centers on the intersection of community, game design, and XR, developing immersive experiences through collaborative co-design. Before joining the Creative Computing Institute, Stella was a Lecturer in the Games De</v>
       </c>
       <c r="I19" s="1" t="s">
         <v>26</v>
       </c>
       <c r="K19" s="5" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.2">
@@ -1468,7 +1471,7 @@
         <v>24</v>
       </c>
       <c r="H20" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f>CLEAN(LEFT(K20,$H$1))</f>
         <v>Dr. Terence Broad is Senior Lecturer at the UAL Creative Computing Institute and holds a PhD from Goldsmiths, University of London. Terence has had an artistic practice working with generative AI that has spanned over 10 years. Terence's research primarily focusses on practice-based and practice-led creative research working with cutting edge technologies, such as generative models for image, audio and video; computer vision and computational photograhy; as well as neural rendering techniques for spatial representations and world models. In his creative practice, Terence uses these algorithms as artistic materials, experimenting with them in unconventional ways. To explore and expose the latent possibilities of these black-box systems. Hi</v>
       </c>
       <c r="I20" s="1" t="s">
@@ -1483,32 +1486,32 @@
         <v>32</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="E21" s="1" t="s">
         <v>31</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="G21" s="1" t="s">
         <v>24</v>
       </c>
       <c r="H21" s="1" t="str">
-        <f t="shared" ref="H21:H22" si="1">CLEAN(LEFT(K21,$H$1))</f>
-        <v>Dr. Kayalvizhi Jayavel is a researcher, academic leader, and educator with over two decades of experience in data science, artificial intelligence, and the Internet of Things (IoT). Currently serving as Senior Lecturer and Course Leader for the BSc (Hons) Data Science and AI at the Creative Computing Institute, University of the Arts London, she has been instrumental in shaping a forward-looking curriculum that integrates cutting-edge research with practical learning. In this role, she leads teaching teams, mentors students, drives curriculum innovation, and connects academia with industry expertise.Her career reflects a strong balance of academic leadership, research excellence, and international collaboration. Prior to joining UAL, she s</v>
+        <f>CLEAN(LEFT(K21,$H$1))</f>
+        <v xml:space="preserve">Audiovisual media and digital technologies are pervasive in modern human life. Our brains and behaviours develop from birth to adulthood shaped by the media around us whilst rapid technological evolution enables new media experiences that are increasingly symbiotic with human cognition. In my Cognition in Naturalistic Environments (CINE) Lab (www.cinelabresearch.com) we study the relationship between media and minds across the lifespan. Utilising advanced experimental and computational techniques (including eye tracking, EEG, fNIRS, computational modelling and AI) we endeavour to study this relationship from the frame-by-frame effect of directorial decisions on viewer attention and comprehension to the long-lasting impact of everyday media </v>
       </c>
       <c r="I21" s="1" t="s">
         <v>26</v>
       </c>
       <c r="K21" s="5" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.2">
@@ -1534,7 +1537,7 @@
         <v>24</v>
       </c>
       <c r="H22" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f>CLEAN(LEFT(K22,$H$1))</f>
         <v>Dr. Wenshu Zhang is specialised in Computer Graphics, Computer Vision and Games Technologies. Her academic journey led her to the National Centre for Computer Animation, where she earned her PhD. Dr. Zhang's career is marked by her involvement in a variety of cross-disciplinary research projects. Her work spans from pioneering image-based digital content generation to exploring the intersections of computational biology and the design and development of interactive systems. Through her research, Dr. Zhang consistently seeks to expand the limits of computer science, demonstrating its versatility and adaptability within the creative industry.</v>
       </c>
       <c r="I22" s="1" t="s">
@@ -1545,22 +1548,22 @@
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K20">
-    <sortCondition ref="D2:D20"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K22">
+    <sortCondition ref="D2:D22"/>
   </sortState>
   <hyperlinks>
     <hyperlink ref="B10" r:id="rId1" xr:uid="{1C381F97-E4CC-F344-B151-A0514D09C8C2}"/>
-    <hyperlink ref="B12" r:id="rId2" xr:uid="{119F5C7D-935A-4040-BAF0-9396F5B75249}"/>
+    <hyperlink ref="B13" r:id="rId2" xr:uid="{119F5C7D-935A-4040-BAF0-9396F5B75249}"/>
     <hyperlink ref="B4" r:id="rId3" xr:uid="{AD06968C-5D69-0B45-BBF4-C577B42CE59A}"/>
     <hyperlink ref="B7" r:id="rId4" xr:uid="{0F08B29A-7E01-8A41-A92D-E198F7354699}"/>
     <hyperlink ref="B8" r:id="rId5" xr:uid="{07AF6472-F972-F64D-B9E0-72B1A663138A}"/>
-    <hyperlink ref="B13" r:id="rId6" xr:uid="{0FECD015-C116-F541-8A5E-D52C535284EE}"/>
-    <hyperlink ref="B15" r:id="rId7" xr:uid="{48F2D8A9-5C9C-8740-9EAD-CDC0C8ED4C54}"/>
-    <hyperlink ref="B16" r:id="rId8" xr:uid="{744DAC64-600D-CB4A-B222-793DEC5B94CF}"/>
-    <hyperlink ref="B17" r:id="rId9" xr:uid="{F89E101E-4F1E-8941-AE40-D9D8BCD09276}"/>
-    <hyperlink ref="B18" r:id="rId10" xr:uid="{A96296D0-6AB6-1E43-BCA5-B1CBD859FF22}"/>
-    <hyperlink ref="B19" r:id="rId11" xr:uid="{E2F0AB2B-9943-7A44-97CF-04FE90E9BD81}"/>
-    <hyperlink ref="B21" r:id="rId12" xr:uid="{878C8BC4-E8E7-A946-B708-9D64B99A31D3}"/>
+    <hyperlink ref="B14" r:id="rId6" xr:uid="{0FECD015-C116-F541-8A5E-D52C535284EE}"/>
+    <hyperlink ref="B16" r:id="rId7" xr:uid="{48F2D8A9-5C9C-8740-9EAD-CDC0C8ED4C54}"/>
+    <hyperlink ref="B17" r:id="rId8" xr:uid="{744DAC64-600D-CB4A-B222-793DEC5B94CF}"/>
+    <hyperlink ref="B18" r:id="rId9" xr:uid="{F89E101E-4F1E-8941-AE40-D9D8BCD09276}"/>
+    <hyperlink ref="B19" r:id="rId10" xr:uid="{A96296D0-6AB6-1E43-BCA5-B1CBD859FF22}"/>
+    <hyperlink ref="B21" r:id="rId11" xr:uid="{E2F0AB2B-9943-7A44-97CF-04FE90E9BD81}"/>
+    <hyperlink ref="B11" r:id="rId12" xr:uid="{878C8BC4-E8E7-A946-B708-9D64B99A31D3}"/>
     <hyperlink ref="B22" r:id="rId13" xr:uid="{50EE7635-DA06-B84E-AEA5-9DCBB83EC679}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
